--- a/SIRV_Set4_transcript_annotation.xlsx
+++ b/SIRV_Set4_transcript_annotation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\puwentan\Dropbox (University of Michigan)\Projects\TE_investigation\ref_data\SIRV\SIRV-set4\SIRV_annotation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University of Michigan Dropbox\Puwen Tan\Projects\TE_investigation\01.ref_genome\SIRV\SIRV-set4\SIRV_annotation20241120\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7384DF47-3C99-4B3F-B20D-0AD791FEC6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFA3317-4129-4162-B442-2D5883C65B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{11EC84F2-152B-44E0-B41F-1106838D81C9}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{11EC84F2-152B-44E0-B41F-1106838D81C9}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="555">
   <si>
     <t>GTGAGACGATGAAACTTGAGAAATCGCACTGGCTTACATATACACGATAAAAGACTTTAATACAATATAAGAAGTCGTTATTGAAGACGGAGATGTATGTTACCGCCCAATTTTAGAGATACAAAATGAGACTGACATAGCGGTTAACTATATTAGAGCACGCCTAAGCATTGAAGGTTTAGTCATCTTCATTAGAGTATACTGTATTGACGGCTGAATGCAAATAAATTGAGACAAAACCGATTTCTTGAATTAGCACGAAGTAAGTATAAAACTAGTAGAGTGACACCAAGTATATAGGGGGTTTATATCGCGTGGAATCGAACAACATATCTATTTAATTAGTTTAATAACAAATTAAGTGACTTATCGCGGAAGAGAGAACAATAGATTGGATTAAAAAGTTGTAGTAAACCACAACGAAGTTAGGTAGCTGGTAAGGTTATAGATGCGTTCTGTCGTTGTAGTCCCAATGAACATAGTATGGTTTCGCATAGTAACTGACCTAAAAGACCGCCACATAGTGAAAATACTTAAAACGCAAGTTTCATAGGATTAAGTGGTAGAGGCTATAGAAAATGATATCATAACTATAACGAATATAACAGCAAATTAAAATGCACTGGATAATAAAAATTAAACTAATATTTGTAGTTAGTGGTGCAGATTTGAACGAACAGTCAGGCGAAATGGAAGTAATAGATGATTCATGGACGATAAGTCATTAAGACATCGAAGACTGTTTTGGATGTAGACATATTTGTAGAACATTAAAGAAAGATATGAGTTCTTTATTTCAAAAACATAGATGGTTGGCTGGTTAGCAACGTCAAAGCCCACAGTATCTAATGTTGTTATGGCAGAAACAGACAAAATATCAGGCTACAAAAATGTATCAGAGCATTAACATGAAAAATCCTAAGAGATCGACGAAGTTATCGACTAAATTGTTGTAATCCAAGAGGCTGATTGACGTTTAGAAGTAAGTGGCAATTTGGTTTAAAACAACGATAATAAAGGTTGCGAAGAAATATAAAAAGTAGTCACATAACACTGACATTATTAAATTTAGATAGACTTTACCGCTAAAACTGTAGTTAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
   </si>
@@ -1694,13 +1694,238 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <r>
+      <t>SIRV4001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIRV4002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIRV4003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIRV6001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIRV6002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIRV6003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIRV8001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIRV8002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIRV8003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIRV10001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIRV10002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIRV10003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIRV12001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIRV12002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SIRV12003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1727,6 +1952,12 @@
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1993,9 +2224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2033,7 +2264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2139,7 +2370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2281,7 +2512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2291,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E0A087-FED0-4C14-B2DA-AE1F65CB4F7B}">
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,14 +2548,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F080EFC3-F6CD-4AC8-BA49-FA41AA259E97}">
   <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G207" sqref="G207"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="14" customWidth="1"/>
     <col min="5" max="5" width="10.140625" customWidth="1"/>
@@ -7447,7 +7678,7 @@
         <v>520</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="C194" s="12" t="s">
         <v>505</v>
@@ -7473,7 +7704,7 @@
         <v>520</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>506</v>
+        <v>541</v>
       </c>
       <c r="C195" s="12" t="s">
         <v>506</v>
@@ -7499,7 +7730,7 @@
         <v>520</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>507</v>
+        <v>542</v>
       </c>
       <c r="C196" s="12" t="s">
         <v>507</v>
@@ -7525,7 +7756,7 @@
         <v>520</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>508</v>
+        <v>543</v>
       </c>
       <c r="C197" s="12" t="s">
         <v>508</v>
@@ -7551,7 +7782,7 @@
         <v>520</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="C198" s="12" t="s">
         <v>509</v>
@@ -7577,7 +7808,7 @@
         <v>520</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="C199" s="12" t="s">
         <v>510</v>
@@ -7603,7 +7834,7 @@
         <v>520</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>511</v>
+        <v>546</v>
       </c>
       <c r="C200" s="12" t="s">
         <v>511</v>
@@ -7629,7 +7860,7 @@
         <v>520</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="C201" s="12" t="s">
         <v>512</v>
@@ -7655,7 +7886,7 @@
         <v>520</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>513</v>
+        <v>548</v>
       </c>
       <c r="C202" s="12" t="s">
         <v>513</v>
@@ -7681,7 +7912,7 @@
         <v>520</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>514</v>
+        <v>549</v>
       </c>
       <c r="C203" s="12" t="s">
         <v>514</v>
@@ -7707,7 +7938,7 @@
         <v>520</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
       <c r="C204" s="12" t="s">
         <v>515</v>
@@ -7733,7 +7964,7 @@
         <v>520</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
       <c r="C205" s="12" t="s">
         <v>516</v>
@@ -7759,7 +7990,7 @@
         <v>520</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
       <c r="C206" s="12" t="s">
         <v>517</v>
@@ -7785,7 +8016,7 @@
         <v>520</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
       <c r="C207" s="12" t="s">
         <v>518</v>
@@ -7811,7 +8042,7 @@
         <v>520</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="C208" s="13" t="s">
         <v>519</v>
